--- a/biology/Botanique/Pulsatilla_cernua/Pulsatilla_cernua.xlsx
+++ b/biology/Botanique/Pulsatilla_cernua/Pulsatilla_cernua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulsatilla cernua est une espèce de plante à fleurs appartenant au genre Pulsatilla et à la famille des Ranunculaceae.
 Elle fleurit en avril sous nos latitudes en France et en mai dans son environnement naturel, en Asie, avec une belle couleur allant du pourpre foncé au violet clair.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace qui peut atteindre de 4 à 20 cm de hauteur. Son rhizome est long, puissant, presque vertical et souvent multiple. Ses tiges sont dressées. Ses feuilles et ses pédoncules sont fortement duveteux. Ses fleurs s'ouvrent rarement complètement. Les petites feuilles du périanthe mesurent de 2,2 à 3,5 cm de longueur et de 0,6 à 1,2 cm de largeur.
 </t>
@@ -545,9 +559,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve dans son environnement naturel Pulsatilla cernua dans l'oblast d'Amour, en Primorié, au nord de la Mongolie et de la Chine, à l'ouest du Japon (Hokkaido, Honshu, Kyushu), et en Corée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve dans son environnement naturel Pulsatilla cernua dans l'oblast d'Amour, en Primorié, au nord de la Mongolie et de la Chine, à l'ouest du Japon (Hokkaido, Honshu, Kyushu), et en Corée.
 Cette espèce apprécie les pentes ouvertes de terre sèche. On la trouve rarement sur les berges sablonneuses.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante s'adapte bien aux jardins européens de la zone tempérée (zone 6) dans des sols bien drainés[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante s'adapte bien aux jardins européens de la zone tempérée (zone 6) dans des sols bien drainés.
 </t>
         </is>
       </c>
